--- a/biology/Botanique/Rutger_Sernander/Rutger_Sernander.xlsx
+++ b/biology/Botanique/Rutger_Sernander/Rutger_Sernander.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johan Rutger Sernander (2 novembre 1866 - 27 octobre 1944 à Uppsala) est un botaniste, géologue et archéologue suédois. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'un des pionniers de la palynologie, développée par la suite par un de ses étudiants Lennart von Post. Il est aussi l'une des figures de la conservation de la nature de l'époque, en particulier à travers l'association suédoise de protection de la nature (Svenska Naturskyddsföreningen) qu'il fonde en 1909. Avec Axel Gudbrand Blytt, il donne son nom à la séquence de Blytt–Sernander.
 </t>
